--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44973</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1439,41 +1439,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>46034</v>
+        <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1520,49 +1520,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45279</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1575,19 +1571,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1602,52 +1598,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1659,20 +1655,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1687,52 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44552</v>
+        <v>46034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,7 +1746,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>14.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1754,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1769,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1779,45 +1780,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45450</v>
+        <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1829,22 +1834,17 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1869,45 +1869,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,20 +1920,20 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
@@ -1944,55 +1944,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2032,38 +2032,38 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44321</v>
+        <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,8 +2845,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44901</v>
+        <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2902,13 +2907,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>11.9</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45225</v>
+        <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2964,13 +2964,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3007,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44481</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3027,7 +3022,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3064,14 +3059,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44953</v>
+        <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3083,8 +3078,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>11.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3121,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44487</v>
+        <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>9.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45986</v>
+        <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,13 +3202,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3245,14 +3240,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44420</v>
+        <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3264,8 +3259,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3302,14 +3302,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,8 +3321,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44546</v>
+        <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,8 +3383,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>17.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3416,14 +3426,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45232</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3435,13 +3445,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>38.9</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3478,14 +3483,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44494</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3497,13 +3502,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46042</v>
+        <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,13 +3559,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>9.5</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3602,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>45279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3622,7 +3617,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3659,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45450</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3678,13 +3673,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3721,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45547</v>
+        <v>45216</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3740,13 +3730,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3783,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45216</v>
+        <v>44481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3803,7 +3788,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3840,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46031</v>
+        <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3865,7 +3850,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3902,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46043</v>
+        <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3921,13 +3906,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3964,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45197</v>
+        <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3984,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4021,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,13 +4020,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4083,14 +4058,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4102,8 +4077,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4140,14 +4120,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44959</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4160,7 +4140,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4197,14 +4177,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45096</v>
+        <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4217,7 +4197,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4254,14 +4234,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4273,8 +4253,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4311,14 +4296,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45701</v>
+        <v>45986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4336,7 +4321,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>17.3</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4373,14 +4358,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44354</v>
+        <v>44906</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4393,7 +4378,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4430,14 +4415,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44368</v>
+        <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,8 +4434,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4487,14 +4477,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45450</v>
+        <v>46042</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4512,7 +4502,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4549,14 +4539,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45215</v>
+        <v>44959</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,13 +4558,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4611,14 +4596,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44901</v>
+        <v>46031</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4636,7 +4621,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>10.7</v>
+        <v>5.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4673,14 +4658,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44455</v>
+        <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4692,8 +4677,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4730,14 +4720,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45279</v>
+        <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,8 +4739,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4787,14 +4782,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44606</v>
+        <v>44546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,13 +4801,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4839,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44953</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4859,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4896,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44906</v>
+        <v>44901</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,8 +4915,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>10.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4958,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44950</v>
+        <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,8 +4977,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45348</v>
+        <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,13 +5039,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45279</v>
+        <v>44420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45279</v>
+        <v>44606</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,8 +5153,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>9.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45722</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,8 +5215,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5258,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,13 +5277,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45722</v>
+        <v>45701</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5334,13 +5334,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5377,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45701</v>
+        <v>45547</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5396,8 +5391,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>45671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>46034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45730.37431712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45216</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>44906</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>46042</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44959</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>46031</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44953</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44901</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44606</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45722</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>45279</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45701</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45547</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>46034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45730.37431712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>45216</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>45986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         <v>44906</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>46042</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>44959</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>46031</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44546</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44953</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44901</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44420</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44606</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>45722</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>45279</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45701</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>45547</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>44973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1439,41 +1439,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44552</v>
+        <v>45450</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1485,18 +1485,23 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1510,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1520,31 +1525,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1563,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,14 +1641,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45450</v>
+        <v>45279</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1655,13 +1660,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1695,45 +1695,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46034</v>
+        <v>44552</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>14.2</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1780,49 +1780,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45726</v>
+        <v>46034</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,17 +1831,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>14.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1859,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1869,45 +1865,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44973</v>
+        <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1944,55 +1944,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45279</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,19 +2005,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2032,38 +2032,38 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232</v>
+        <v>44481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,13 +2845,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45279</v>
+        <v>44420</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44368</v>
+        <v>45232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2964,8 +2959,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>38.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3021,8 +3021,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3059,14 +3064,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44901</v>
+        <v>45547</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3084,7 +3089,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.9</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3126,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45450</v>
+        <v>45216</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3140,13 +3145,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44950</v>
+        <v>45197</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3240,14 +3240,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45225</v>
+        <v>45722</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3261,11 +3261,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3302,14 +3302,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45348</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,13 +3321,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45701</v>
+        <v>44959</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3383,13 +3378,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>17.3</v>
+        <v>5.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3426,14 +3416,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3446,7 +3436,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3483,14 +3473,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45701</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,8 +3492,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>17.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3535,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45096</v>
+        <v>44354</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3560,7 +3555,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3597,14 +3592,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45279</v>
+        <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3612,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3649,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45450</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,8 +3668,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216</v>
+        <v>44321</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44481</v>
+        <v>44901</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3787,8 +3787,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>11.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3830,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44487</v>
+        <v>45225</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44455</v>
+        <v>44953</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44321</v>
+        <v>44487</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3963,8 +3968,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4011,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45279</v>
+        <v>44546</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4021,7 +4031,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4068,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45450</v>
+        <v>45279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4077,13 +4087,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4120,14 +4125,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45450</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4139,8 +4144,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4177,14 +4187,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45197</v>
+        <v>45096</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4197,7 +4207,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4234,14 +4244,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45722</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4253,13 +4263,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4303,7 +4308,7 @@
         <v>45986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4358,14 +4363,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44906</v>
+        <v>46042</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,8 +4382,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4415,14 +4425,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45722</v>
+        <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4440,7 +4450,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4477,14 +4487,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46042</v>
+        <v>46031</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4502,7 +4512,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.5</v>
+        <v>5.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4539,14 +4549,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44959</v>
+        <v>46043</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4558,8 +4568,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4596,14 +4611,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46031</v>
+        <v>44901</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4621,7 +4636,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.6</v>
+        <v>10.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4658,14 +4673,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46043</v>
+        <v>44455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,13 +4692,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4720,14 +4730,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215</v>
+        <v>45279</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,13 +4749,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4782,14 +4787,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44546</v>
+        <v>44606</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4801,8 +4806,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4839,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44953</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4859,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4896,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44901</v>
+        <v>44906</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4915,13 +4925,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>10.7</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4958,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44494</v>
+        <v>44950</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4977,13 +4982,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44354</v>
+        <v>45348</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,8 +5039,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44420</v>
+        <v>45279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44606</v>
+        <v>45279</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5153,13 +5158,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>9.6</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45722</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,13 +5215,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5258,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45279</v>
+        <v>45722</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5277,8 +5272,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45701</v>
+        <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5334,8 +5334,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5377,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45547</v>
+        <v>45701</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5391,13 +5396,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>45671</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44973</v>
+        <v>45279</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,19 +1401,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1428,52 +1428,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45450</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1485,25 +1485,20 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1518,52 +1513,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,7 +1571,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1588,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1600,55 +1595,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45279</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,19 +1656,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,52 +1683,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44552</v>
+        <v>45450</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,18 +1740,23 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1780,31 +1780,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1818,7 +1818,7 @@
         <v>46034</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45726</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,14 +1985,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>44973</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2043,27 +2043,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44481</v>
+        <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,8 +2845,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44420</v>
+        <v>44606</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2902,8 +2907,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>9.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2940,14 +2950,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45232</v>
+        <v>45279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2959,13 +2969,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>38.9</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3007,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44494</v>
+        <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3019,11 +3024,6 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3064,14 +3064,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45547</v>
+        <v>45722</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3085,11 +3085,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3126,14 +3126,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45216</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45197</v>
+        <v>44901</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,8 +3202,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>11.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3240,14 +3245,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3259,13 +3264,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3302,14 +3302,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45701</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3359,14 +3359,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44959</v>
+        <v>45547</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3378,8 +3378,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3416,14 +3421,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>44950</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3436,7 +3441,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3473,14 +3478,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45701</v>
+        <v>45671</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3492,13 +3497,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>17.3</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3535,14 +3535,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44354</v>
+        <v>45450</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3554,8 +3554,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3592,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44368</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3612,7 +3617,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3649,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45450</v>
+        <v>45225</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3674,7 +3679,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3716,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44321</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,7 +3736,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3773,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44901</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3787,13 +3792,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45225</v>
+        <v>45348</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>8.300000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3892,14 +3892,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44953</v>
+        <v>45701</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3911,8 +3911,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>17.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44487</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3968,13 +3973,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4011,14 +4011,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44546</v>
+        <v>45096</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4068,14 +4068,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>45279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4125,14 +4125,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45450</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,13 +4144,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4187,14 +4182,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45096</v>
+        <v>45216</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4207,7 +4202,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4244,14 +4239,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>44481</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4264,7 +4259,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4301,14 +4296,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45986</v>
+        <v>44487</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4326,7 +4321,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4363,14 +4358,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46042</v>
+        <v>44455</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,13 +4377,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>9.5</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4425,14 +4415,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45215</v>
+        <v>44321</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4444,13 +4434,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4487,14 +4472,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46031</v>
+        <v>45279</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,13 +4491,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4549,14 +4529,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46043</v>
+        <v>45450</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4574,7 +4554,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4611,14 +4591,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44901</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4630,13 +4610,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>10.7</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4673,14 +4648,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44455</v>
+        <v>45197</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4693,7 +4668,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4730,14 +4705,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45279</v>
+        <v>45722</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4749,8 +4724,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4787,14 +4767,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44606</v>
+        <v>44906</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4806,13 +4786,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>9.6</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4824,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>45986</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,8 +4843,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4886,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44906</v>
+        <v>45722</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,8 +4905,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4948,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44950</v>
+        <v>46042</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,8 +4967,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5010,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45348</v>
+        <v>44959</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,13 +5029,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5082,14 +5067,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45279</v>
+        <v>46031</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5101,8 +5086,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5129,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45279</v>
+        <v>45215</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5158,8 +5148,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>46043</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,8 +5210,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45722</v>
+        <v>44546</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,13 +5272,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45722</v>
+        <v>44953</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5334,13 +5329,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5377,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45701</v>
+        <v>44901</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5396,8 +5386,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>10.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5434,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45671</v>
+        <v>44494</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5453,8 +5448,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5491,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>44354</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5548,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>44420</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45279</v>
+        <v>44973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,19 +1401,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1428,52 +1428,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>45279</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,19 +1486,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1513,38 +1513,38 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
         <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1655,20 +1655,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1683,52 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45450</v>
+        <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1740,22 +1745,17 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1780,45 +1780,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46034</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1858,56 +1858,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45726</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,20 +1916,20 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
@@ -1944,55 +1940,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44973</v>
+        <v>46034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2001,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>14.2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2014,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2032,52 +2028,56 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37421-2021</t>
+          <t>A 41465-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44397</v>
+        <v>44424</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2089,13 +2089,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2132,14 +2127,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41465-2021</t>
+          <t>A 37421-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44424</v>
+        <v>44397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2151,8 +2146,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,14 +2707,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14719-2022</t>
+          <t>A 24308-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44655</v>
+        <v>44336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2726,13 +2726,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2769,14 +2764,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24308-2021</t>
+          <t>A 14719-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44336</v>
+        <v>44655</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2788,8 +2783,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232</v>
+        <v>45225</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44606</v>
+        <v>45232</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9.6</v>
+        <v>38.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2950,14 +2950,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45279</v>
+        <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2969,8 +2969,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3007,14 +3012,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44368</v>
+        <v>44953</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3027,7 +3032,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3064,14 +3069,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45722</v>
+        <v>44487</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3085,11 +3090,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3126,14 +3131,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44546</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3146,7 +3151,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3188,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44901</v>
+        <v>44481</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,13 +3207,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>45279</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3302,14 +3302,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45701</v>
+        <v>45547</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,8 +3321,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3359,14 +3364,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45547</v>
+        <v>45450</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3384,7 +3389,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3421,14 +3426,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44950</v>
+        <v>45216</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3441,7 +3446,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3478,14 +3483,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45671</v>
+        <v>44420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3498,7 +3503,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3535,14 +3540,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45450</v>
+        <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3554,13 +3559,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3597,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45225</v>
+        <v>45722</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,11 +3675,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45348</v>
+        <v>44959</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3849,13 +3849,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3892,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45701</v>
+        <v>44606</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3917,7 +3912,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>17.3</v>
+        <v>9.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3954,14 +3949,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3974,7 +3969,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4011,14 +4006,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45096</v>
+        <v>44906</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4068,14 +4063,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45279</v>
+        <v>44950</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4088,7 +4083,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4125,14 +4120,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45348</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,8 +4139,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4182,14 +4182,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45216</v>
+        <v>45701</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,8 +4201,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>17.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4239,14 +4244,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44481</v>
+        <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4258,8 +4263,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4296,14 +4306,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44487</v>
+        <v>44354</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4315,13 +4325,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4358,14 +4363,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44455</v>
+        <v>44368</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4378,7 +4383,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4415,14 +4420,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44321</v>
+        <v>45450</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4434,8 +4439,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4472,14 +4482,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45279</v>
+        <v>44901</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4491,8 +4501,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4529,14 +4544,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45450</v>
+        <v>44455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,13 +4563,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4591,14 +4601,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45279</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4611,7 +4621,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4648,14 +4658,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45197</v>
+        <v>44321</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4668,7 +4678,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4705,14 +4715,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45722</v>
+        <v>44901</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4726,11 +4736,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>11.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4767,14 +4777,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44906</v>
+        <v>45279</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4787,7 +4797,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4824,14 +4834,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45986</v>
+        <v>45279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4843,13 +4853,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4886,14 +4891,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45722</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4905,13 +4910,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4948,14 +4948,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46042</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4967,13 +4967,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>9.5</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5010,14 +5005,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44959</v>
+        <v>45722</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,8 +5024,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5067,14 +5067,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46031</v>
+        <v>45722</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5129,14 +5129,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45215</v>
+        <v>45701</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,13 +5148,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5186,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46043</v>
+        <v>45671</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,13 +5205,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5243,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44546</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5263,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5300,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44953</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5320,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5357,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44901</v>
+        <v>45986</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44494</v>
+        <v>46042</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5454,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.8</v>
+        <v>9.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44354</v>
+        <v>46031</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5510,8 +5500,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5543,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44420</v>
+        <v>46043</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5567,8 +5562,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44973</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1439,41 +1439,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45279</v>
+        <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,16 +1486,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1520,45 +1520,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44552</v>
+        <v>45450</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1570,18 +1570,23 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1605,45 +1610,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45450</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1655,25 +1660,20 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,38 +1688,38 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,14 +1811,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>46034</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1858,52 +1858,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1920,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1954,41 +1958,41 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46034</v>
+        <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2001,10 +2005,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>14.2</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2035,49 +2039,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 41465-2021</t>
+          <t>A 37421-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44424</v>
+        <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2089,8 +2089,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2127,14 +2132,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 37421-2021</t>
+          <t>A 41465-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44397</v>
+        <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2146,13 +2151,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2707,14 +2707,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24308-2021</t>
+          <t>A 14719-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44336</v>
+        <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2726,8 +2726,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2764,14 +2769,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14719-2022</t>
+          <t>A 24308-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44655</v>
+        <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2783,13 +2788,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>8.300000000000001</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45232</v>
+        <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2907,13 +2907,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>38.9</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2950,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44494</v>
+        <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2967,11 +2962,6 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3012,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44953</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3032,7 +3022,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3069,14 +3059,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44487</v>
+        <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3094,7 +3084,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>9.199999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3131,14 +3121,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44546</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3151,7 +3141,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3188,14 +3178,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44481</v>
+        <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3208,7 +3198,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3245,14 +3235,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45279</v>
+        <v>45450</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3264,8 +3254,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3302,14 +3297,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45547</v>
+        <v>45225</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3327,7 +3322,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3364,14 +3359,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45450</v>
+        <v>45348</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3389,7 +3384,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3426,14 +3421,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45216</v>
+        <v>45701</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3445,8 +3440,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>17.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3483,14 +3483,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44420</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>45096</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3597,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45197</v>
+        <v>45279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45722</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,13 +3673,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3716,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45216</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3736,7 +3731,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3773,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>44481</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44959</v>
+        <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3849,8 +3844,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44606</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3906,13 +3906,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>9.6</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3949,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44455</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3969,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44906</v>
+        <v>44321</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44950</v>
+        <v>45279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45348</v>
+        <v>45450</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4145,7 +4140,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4182,14 +4177,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45701</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,13 +4196,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>17.3</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4244,14 +4234,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45215</v>
+        <v>45197</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,13 +4253,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4306,14 +4291,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44354</v>
+        <v>45722</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4325,8 +4310,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4363,14 +4353,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44368</v>
+        <v>44906</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4383,7 +4373,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4420,14 +4410,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45450</v>
+        <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4441,11 +4431,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4482,14 +4472,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44901</v>
+        <v>44959</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4501,13 +4491,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>10.7</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4544,14 +4529,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44455</v>
+        <v>45215</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,8 +4548,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4601,14 +4591,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45279</v>
+        <v>45986</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,8 +4610,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4658,14 +4653,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44321</v>
+        <v>44546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4678,7 +4673,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4715,14 +4710,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44901</v>
+        <v>44953</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,13 +4729,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>11.9</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4777,14 +4767,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45279</v>
+        <v>46042</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,8 +4786,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>9.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4834,14 +4829,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45279</v>
+        <v>44901</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,8 +4848,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4891,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>46031</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,8 +4910,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4948,14 +4953,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>46043</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4967,8 +4972,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5005,14 +5015,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45722</v>
+        <v>44494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5026,11 +5036,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5067,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45722</v>
+        <v>44354</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5086,13 +5096,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5129,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45701</v>
+        <v>44420</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5154,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5186,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45671</v>
+        <v>44606</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,8 +5210,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5243,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45722</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5262,8 +5272,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5300,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45279</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5320,7 +5335,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5357,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45986</v>
+        <v>45701</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5376,13 +5391,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46042</v>
+        <v>45547</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5454,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>9.5</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5491,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46031</v>
+        <v>45671</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,13 +5510,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5548,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46043</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5562,13 +5567,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45450</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1570,25 +1570,20 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1603,52 +1598,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,20 +1655,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,52 +1688,52 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45726</v>
+        <v>46034</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,17 +1746,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>14.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1780,45 +1780,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46034</v>
+        <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,16 +1835,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>14.2</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1855,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1865,35 +1869,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44368</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44901</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3021,8 +3021,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>11.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3059,14 +3064,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44901</v>
+        <v>44368</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3078,13 +3083,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>11.9</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3121,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3178,14 +3178,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44950</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3235,14 +3235,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45450</v>
+        <v>44950</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3254,13 +3254,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3297,14 +3292,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45225</v>
+        <v>45450</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3322,7 +3317,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3359,14 +3354,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45348</v>
+        <v>45225</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3384,7 +3379,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3421,14 +3416,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45701</v>
+        <v>45348</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3446,7 +3441,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>17.3</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3483,14 +3478,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45701</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,8 +3497,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>17.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45096</v>
+        <v>46031</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,8 +3559,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>5.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3597,14 +3602,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45279</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3622,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3659,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3674,7 +3679,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3716,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45216</v>
+        <v>46043</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3730,8 +3735,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3778,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44481</v>
+        <v>45096</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3788,7 +3798,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3835,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44487</v>
+        <v>45279</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3844,13 +3854,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>9.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44455</v>
+        <v>45216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44321</v>
+        <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45279</v>
+        <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4077,8 +4082,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4115,14 +4125,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45450</v>
+        <v>44455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4134,13 +4144,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4177,14 +4182,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4197,7 +4202,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4234,14 +4239,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45197</v>
+        <v>45986</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4253,8 +4258,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4291,14 +4301,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4310,13 +4320,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4353,14 +4358,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44906</v>
+        <v>45450</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4372,8 +4377,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4410,14 +4420,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45722</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4429,13 +4439,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4472,14 +4477,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44959</v>
+        <v>45197</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4492,7 +4497,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4529,14 +4534,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45215</v>
+        <v>46042</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4550,11 +4555,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4591,14 +4596,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45986</v>
+        <v>45722</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4612,11 +4617,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4653,14 +4658,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44546</v>
+        <v>44906</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4673,7 +4678,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4710,14 +4715,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44953</v>
+        <v>45722</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4729,8 +4734,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4767,14 +4777,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46042</v>
+        <v>44959</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4786,13 +4796,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4829,14 +4834,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44901</v>
+        <v>45215</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,11 +4855,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.7</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4896,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46031</v>
+        <v>44546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,13 +4915,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4953,14 +4953,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46043</v>
+        <v>44953</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,13 +4972,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5015,14 +5010,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44494</v>
+        <v>44901</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5035,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>10.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5072,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44354</v>
+        <v>44494</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5096,8 +5091,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5191,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44606</v>
+        <v>44420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,13 +5210,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45722</v>
+        <v>44606</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5274,11 +5269,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45279</v>
+        <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5334,8 +5329,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5372,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45701</v>
+        <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45547</v>
+        <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5448,13 +5448,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45671</v>
+        <v>45547</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5510,8 +5505,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5548,14 +5548,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45671</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,14 +1636,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45450</v>
+        <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1655,16 +1655,11 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>14.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1695,45 +1690,49 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46034</v>
+        <v>45450</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1745,11 +1744,16 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>14.2</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,35 +1784,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>45726</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>44973</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44901</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3021,13 +3021,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>11.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3064,14 +3059,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44368</v>
+        <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3083,8 +3078,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>11.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3121,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45671</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3178,14 +3178,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3235,14 +3235,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44950</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3292,14 +3292,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45450</v>
+        <v>44950</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3311,13 +3311,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3354,14 +3349,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45225</v>
+        <v>45450</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3379,7 +3374,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3416,14 +3411,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45348</v>
+        <v>45225</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3441,7 +3436,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3478,14 +3473,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45701</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3497,13 +3492,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>17.3</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3530,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46031</v>
+        <v>45348</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3565,7 +3555,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3602,14 +3592,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45701</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3621,8 +3611,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>17.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3659,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3679,7 +3674,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3716,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46043</v>
+        <v>45096</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3735,13 +3730,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3778,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45096</v>
+        <v>45279</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3798,7 +3788,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3835,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45279</v>
+        <v>45986</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3854,8 +3844,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3899,7 +3894,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3956,7 +3951,7 @@
         <v>45216</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4013,7 +4008,7 @@
         <v>44481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4070,7 +4065,7 @@
         <v>44487</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4132,7 +4127,7 @@
         <v>44455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4189,7 +4184,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4239,14 +4234,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45986</v>
+        <v>46042</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4264,7 +4259,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4301,14 +4296,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45279</v>
+        <v>46031</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4320,8 +4315,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>5.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4358,14 +4358,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45450</v>
+        <v>45279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4377,13 +4377,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4420,14 +4415,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45450</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4439,8 +4434,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4477,14 +4477,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45197</v>
+        <v>46043</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4496,8 +4496,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4534,14 +4539,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46042</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4553,13 +4558,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>9.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4596,14 +4596,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45722</v>
+        <v>45197</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4615,13 +4615,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4658,14 +4653,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44906</v>
+        <v>45722</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,8 +4672,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4715,14 +4715,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45722</v>
+        <v>44906</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,13 +4734,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4777,14 +4772,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44959</v>
+        <v>45722</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,8 +4791,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4834,14 +4834,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45215</v>
+        <v>44959</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,13 +4853,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4896,14 +4891,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44546</v>
+        <v>46069</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4916,7 +4911,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4953,14 +4948,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44953</v>
+        <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,8 +4967,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5010,14 +5010,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44901</v>
+        <v>44546</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,13 +5029,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>10.7</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5072,14 +5067,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44494</v>
+        <v>44953</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,13 +5086,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5124,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44354</v>
+        <v>44901</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5153,8 +5143,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>10.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5186,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44420</v>
+        <v>44494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,8 +5205,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44606</v>
+        <v>44354</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5267,13 +5267,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45722</v>
+        <v>44420</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,13 +5324,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5372,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45279</v>
+        <v>44606</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5391,8 +5381,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>9.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45701</v>
+        <v>45722</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5448,8 +5443,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,121 +5486,178 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
+          <t>A 64107-2023</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UPPLANDS-BRO</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2" t="inlineStr"/>
+    </row>
+    <row r="78" ht="15" customHeight="1">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A 7112-2025</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UPPLANDS-BRO</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>A 38902-2024</t>
         </is>
       </c>
-      <c r="B77" s="1" t="n">
+      <c r="B79" s="1" t="n">
         <v>45547</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="C79" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UPPLANDS-BRO</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G77" t="n">
+      <c r="G79" t="n">
         <v>0.8</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>A 2062-2025</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>45671</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>44973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1439,41 +1439,41 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44552</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1510,55 +1510,55 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1609,27 +1609,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45450</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,14 +1815,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45726</v>
+        <v>45279</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,17 +1835,17 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1869,45 +1869,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44973</v>
+        <v>44552</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1944,55 +1944,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45279</v>
+        <v>45726</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,16 +2005,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2039,31 +2039,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232</v>
+        <v>45701</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,13 +2845,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2883,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45279</v>
+        <v>44481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2908,7 +2903,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2940,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44368</v>
+        <v>44420</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,7 +2960,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +2997,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>45671</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3022,7 +3017,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3059,14 +3054,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44901</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3078,13 +3073,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>11.9</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3111,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45671</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3141,7 +3131,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3178,14 +3168,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45232</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3197,8 +3187,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>38.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3235,14 +3230,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>44494</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3254,8 +3249,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3292,14 +3292,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44950</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3349,14 +3349,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45450</v>
+        <v>45547</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3411,14 +3411,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45225</v>
+        <v>45216</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3430,13 +3430,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3473,14 +3468,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45197</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3493,7 +3488,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3530,14 +3525,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45348</v>
+        <v>45722</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3551,11 +3546,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3592,14 +3587,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45701</v>
+        <v>45986</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3612,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>17.3</v>
+        <v>4.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3649,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3674,7 +3669,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3706,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45096</v>
+        <v>44959</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,7 +3726,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3763,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45279</v>
+        <v>45701</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3787,8 +3782,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>17.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45986</v>
+        <v>46042</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>44354</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45216</v>
+        <v>44368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44481</v>
+        <v>45450</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4020,8 +4020,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44487</v>
+        <v>46031</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4083,7 +4088,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4120,14 +4125,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44455</v>
+        <v>46043</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4139,8 +4144,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4184,7 +4194,7 @@
         <v>44321</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4234,14 +4244,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46042</v>
+        <v>44901</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4259,7 +4269,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>9.5</v>
+        <v>11.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4296,14 +4306,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>46031</v>
+        <v>45225</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4321,7 +4331,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4358,14 +4368,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45279</v>
+        <v>44953</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4378,7 +4388,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4415,14 +4425,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45450</v>
+        <v>44487</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4440,7 +4450,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4477,14 +4487,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46043</v>
+        <v>44546</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4496,13 +4506,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4539,14 +4544,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45279</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4559,7 +4564,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4596,14 +4601,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45197</v>
+        <v>45450</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4615,8 +4620,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4653,14 +4663,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45722</v>
+        <v>46069</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4672,13 +4682,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4715,14 +4720,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44906</v>
+        <v>46070</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,8 +4739,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>17.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4772,14 +4782,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45722</v>
+        <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4791,13 +4801,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4834,14 +4839,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44959</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4854,7 +4859,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4896,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46069</v>
+        <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,8 +4915,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4948,14 +4958,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45215</v>
+        <v>44901</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4969,11 +4979,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>10.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5010,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44546</v>
+        <v>44455</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5030,7 +5040,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5067,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44953</v>
+        <v>45279</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5124,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44901</v>
+        <v>44606</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5186,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44494</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5205,13 +5215,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44354</v>
+        <v>44906</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44420</v>
+        <v>44950</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44606</v>
+        <v>45348</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5392,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,13 +5448,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>45279</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45701</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5597,17 +5597,17 @@
       </c>
       <c r="R78" s="2" t="inlineStr"/>
     </row>
-    <row r="79">
+    <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45547</v>
+        <v>45722</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5621,11 +5621,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5658,6 +5658,68 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A 10935-2025</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UPPLANDS-BRO</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>9</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44973</v>
+        <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1425,41 +1425,41 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,14 +1551,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>45450</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1570,20 +1570,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1598,38 +1603,38 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1643,7 +1648,7 @@
         <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1725,14 +1730,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 11447-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45450</v>
+        <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1744,22 +1749,17 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1784,45 +1784,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Myskbock</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45279</v>
+        <v>44973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,19 +1835,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1862,52 +1862,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44552</v>
+        <v>45279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,17 +1920,17 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1954,45 +1954,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11447-2025</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45726</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,20 +2005,20 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
@@ -2029,41 +2029,41 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Myskbock</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 11447-2025 artfynd.xlsx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 11447-2025 karta.png", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 11447-2025 FSC-klagomål.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 11447-2025 FSC-klagomål mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 11447-2025 tillsynsbegäran.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 11447-2025 tillsynsbegäran mail.docx", "A 11447-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45701</v>
+        <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,8 +2845,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2883,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44481</v>
+        <v>44368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2903,7 +2908,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2940,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44420</v>
+        <v>45279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2960,7 +2965,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2997,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45671</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3017,7 +3022,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3054,14 +3059,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3073,8 +3078,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>11.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3111,14 +3121,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3130,8 +3140,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3168,14 +3183,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45232</v>
+        <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3187,13 +3202,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>38.9</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3230,14 +3240,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44494</v>
+        <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3255,7 +3265,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3292,14 +3302,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3311,8 +3321,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3349,14 +3364,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45547</v>
+        <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3389,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>17.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3411,14 +3426,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45216</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3431,7 +3446,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3468,14 +3483,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45197</v>
+        <v>45096</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3488,7 +3503,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3525,14 +3540,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3544,13 +3559,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3587,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45986</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3606,13 +3616,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3649,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45216</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3669,7 +3674,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3706,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44959</v>
+        <v>44481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3726,7 +3731,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3763,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45701</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3782,13 +3787,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>17.3</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>46042</v>
+        <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44354</v>
+        <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44368</v>
+        <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45450</v>
+        <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4020,13 +4020,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46031</v>
+        <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4088,7 +4083,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4125,14 +4120,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>46043</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4144,13 +4139,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4187,14 +4177,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44321</v>
+        <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4207,7 +4197,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4244,14 +4234,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44901</v>
+        <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4265,11 +4255,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>11.9</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4306,14 +4296,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45225</v>
+        <v>44906</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4325,13 +4315,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4368,14 +4353,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44953</v>
+        <v>45986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4387,8 +4372,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4425,14 +4415,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44487</v>
+        <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4446,11 +4436,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4487,14 +4477,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44546</v>
+        <v>44959</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4507,7 +4497,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4544,14 +4534,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45279</v>
+        <v>46042</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4563,8 +4553,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.3</v>
+        <v>9.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4601,14 +4596,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45450</v>
+        <v>45215</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,11 +4617,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4663,14 +4658,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46069</v>
+        <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,8 +4677,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4720,14 +4720,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9655-2026</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46070</v>
+        <v>44546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,13 +4739,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4782,14 +4777,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45096</v>
+        <v>44953</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4802,7 +4797,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4839,14 +4834,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>44901</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4858,8 +4853,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>10.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4896,14 +4896,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215</v>
+        <v>46069</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4915,13 +4915,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4958,14 +4953,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44901</v>
+        <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4978,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.7</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5015,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44455</v>
+        <v>46070</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,8 +5034,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>17.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45279</v>
+        <v>44354</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44606</v>
+        <v>46031</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.6</v>
+        <v>5.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44906</v>
+        <v>44606</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,8 +5272,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5315,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44950</v>
+        <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,8 +5334,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5377,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45348</v>
+        <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,13 +5396,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5434,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45279</v>
+        <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5449,7 +5454,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5491,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45279</v>
+        <v>45547</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5505,8 +5510,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5553,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45671</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,14 +5610,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45722</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5619,13 +5629,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5667,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45722</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5681,13 +5686,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>45450</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45096</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45216</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45730.37431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44906</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44959</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>46042</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>45215</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>44953</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>44901</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>46069</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>46070</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44354</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>46031</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44606</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45547</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>45671</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>44552</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>45450</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>46034</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>45279</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>45279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44901</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45450</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         <v>44950</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         <v>45225</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45348</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         <v>45701</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45096</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>45279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>45216</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45730.37431712963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44487</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44455</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45638.35164351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45197</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45722</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44906</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>45986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>45722</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>44959</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>46042</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
         <v>45215</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>46043</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
         <v>44546</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>44953</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         <v>44901</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>46069</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44494</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>46070</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44354</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>46031</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44420</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44606</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>45547</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>45671</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44552</v>
+        <v>45450</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,18 +1400,23 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1435,45 +1440,45 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45279</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,19 +1491,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1513,52 +1518,52 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45450</v>
+        <v>44552</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1570,22 +1575,17 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1610,45 +1610,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>46034</v>
+        <v>44973</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>14.2</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,42 +1688,38 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
@@ -1737,7 +1733,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1815,14 +1811,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44973</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1873,41 +1869,41 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45279</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1920,19 +1916,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1947,52 +1943,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>46034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2005,7 +2001,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>14.2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2014,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2032,38 +2028,42 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2593,14 +2593,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41463-2021</t>
+          <t>A 31160-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44424</v>
+        <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31160-2022</t>
+          <t>A 41463-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44770</v>
+        <v>44424</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232</v>
+        <v>45547</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44368</v>
+        <v>45216</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45279</v>
+        <v>45197</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>45701</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3021,8 +3021,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>17.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3059,14 +3064,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44901</v>
+        <v>45722</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3080,11 +3085,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.9</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3121,14 +3126,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45450</v>
+        <v>44481</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3140,13 +3145,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3183,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44950</v>
+        <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3240,14 +3240,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45225</v>
+        <v>44354</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3259,13 +3259,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>8.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3302,14 +3297,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45348</v>
+        <v>44368</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3321,13 +3316,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3364,14 +3354,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45701</v>
+        <v>45450</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3389,7 +3379,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>17.3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3426,14 +3416,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>44321</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3446,7 +3436,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3483,14 +3473,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45096</v>
+        <v>44901</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3502,8 +3492,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>11.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3540,14 +3535,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45279</v>
+        <v>45225</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3559,8 +3554,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3597,14 +3597,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45096</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45216</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44481</v>
+        <v>44959</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44487</v>
+        <v>44953</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3844,13 +3844,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3882,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44455</v>
+        <v>44487</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3906,8 +3901,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44321</v>
+        <v>44546</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45232</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4139,8 +4139,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>38.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4177,14 +4182,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45197</v>
+        <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4196,8 +4201,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4234,14 +4244,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45722</v>
+        <v>44901</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4255,11 +4265,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>10.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4296,14 +4306,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44906</v>
+        <v>44455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4316,7 +4326,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4353,14 +4363,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45986</v>
+        <v>45279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4372,13 +4382,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4415,14 +4420,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45722</v>
+        <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4440,7 +4445,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4477,14 +4482,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44959</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4497,7 +4502,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4534,14 +4539,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46042</v>
+        <v>44606</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4559,7 +4564,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4596,14 +4601,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45215</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4615,13 +4620,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4658,14 +4658,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46043</v>
+        <v>44906</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4677,13 +4677,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4720,14 +4715,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44546</v>
+        <v>44950</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4740,7 +4735,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4777,14 +4772,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44953</v>
+        <v>45348</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,8 +4791,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4834,14 +4834,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44901</v>
+        <v>45279</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,13 +4853,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>10.7</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4896,14 +4891,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46069</v>
+        <v>45279</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4916,7 +4911,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4953,14 +4948,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44494</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,13 +4967,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5015,14 +5005,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9655-2026</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46070</v>
+        <v>45722</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5036,11 +5026,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>17.2</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5067,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44354</v>
+        <v>45722</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5096,8 +5086,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5129,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46031</v>
+        <v>45701</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5153,13 +5148,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5196,14 +5186,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44420</v>
+        <v>45986</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5215,8 +5205,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44606</v>
+        <v>45671</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,13 +5267,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5315,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45722</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5334,13 +5324,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5377,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45279</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5397,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5434,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45701</v>
+        <v>46042</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5453,8 +5438,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5491,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45547</v>
+        <v>46043</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5516,7 +5506,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5553,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45671</v>
+        <v>46069</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5573,7 +5563,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5610,14 +5600,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>46070</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5629,8 +5619,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>17.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5667,14 +5662,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>46031</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5686,8 +5681,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44252</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44368</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45722</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44606</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>44552</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,14 +1381,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45450</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,25 +1400,20 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1433,52 +1428,52 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45279</v>
+        <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1491,16 +1486,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1515,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1525,45 +1520,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skogsalmsdvärgmal</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44552</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1576,7 +1571,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1588,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1600,55 +1595,55 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44973</v>
+        <v>45450</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1660,20 +1655,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,38 +1688,38 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,14 +1811,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>44973</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1869,41 +1869,41 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>46034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>14.2</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1943,52 +1943,56 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>46034</v>
+        <v>45279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2001,10 +2005,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>14.2</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2035,35 +2039,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>44397</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44424</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>44609</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>44442</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2593,14 +2593,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31160-2022</t>
+          <t>A 41463-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44770</v>
+        <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2650,14 +2650,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41463-2021</t>
+          <t>A 31160-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44424</v>
+        <v>44770</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>44655</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44336</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2826,14 +2826,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45547</v>
+        <v>45232</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>38.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2888,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45216</v>
+        <v>45279</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2945,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45197</v>
+        <v>44368</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +3002,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45701</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3021,13 +3021,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>17.3</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3064,14 +3059,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45722</v>
+        <v>45701</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3083,13 +3078,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3126,14 +3116,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44481</v>
+        <v>44901</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3145,8 +3135,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>11.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3183,14 +3178,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44420</v>
+        <v>45547</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3202,8 +3197,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3240,14 +3240,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44354</v>
+        <v>45671</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3297,14 +3297,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44368</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3354,14 +3354,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45450</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3373,13 +3373,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3416,14 +3411,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44321</v>
+        <v>44950</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3436,7 +3431,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3473,14 +3468,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44901</v>
+        <v>45450</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3498,7 +3493,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>11.9</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3542,7 +3537,7 @@
         <v>45225</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3597,14 +3592,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45096</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3617,7 +3612,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3654,14 +3649,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45348</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3673,8 +3668,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44959</v>
+        <v>45701</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3730,8 +3730,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3768,14 +3773,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3788,7 +3793,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3825,14 +3830,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44953</v>
+        <v>45096</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3845,7 +3850,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3882,14 +3887,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44487</v>
+        <v>45279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3901,13 +3906,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>9.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44546</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45279</v>
+        <v>45216</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45450</v>
+        <v>44481</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4077,13 +4077,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45232</v>
+        <v>44487</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4145,7 +4140,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>38.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4182,14 +4177,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494</v>
+        <v>44455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4201,13 +4196,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4244,14 +4234,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44901</v>
+        <v>44321</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4263,13 +4253,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>10.7</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4306,14 +4291,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44455</v>
+        <v>45279</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4326,7 +4311,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4363,14 +4348,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45279</v>
+        <v>45450</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4382,8 +4367,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4420,14 +4410,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45215</v>
+        <v>45986</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4441,11 +4431,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4482,14 +4472,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4502,7 +4492,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4539,14 +4529,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44606</v>
+        <v>45197</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4558,13 +4548,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4601,14 +4586,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>45722</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4620,8 +4605,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4665,7 +4655,7 @@
         <v>44906</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4715,14 +4705,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44950</v>
+        <v>46042</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4734,8 +4724,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>9.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4772,14 +4767,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45348</v>
+        <v>46043</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4797,7 +4792,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4834,14 +4829,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45279</v>
+        <v>45722</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,8 +4848,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4891,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45279</v>
+        <v>44959</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4948,14 +4948,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4967,8 +4967,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5005,14 +5010,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45722</v>
+        <v>44546</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5024,13 +5029,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5067,14 +5067,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45722</v>
+        <v>44953</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5086,13 +5086,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5129,14 +5124,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45701</v>
+        <v>46069</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5149,7 +5144,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5186,14 +5181,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45986</v>
+        <v>46070</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5206,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>17.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5243,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45671</v>
+        <v>44901</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5267,8 +5262,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>10.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>46031</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5324,8 +5324,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>44494</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5381,8 +5386,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5429,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46042</v>
+        <v>44354</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5438,13 +5448,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5486,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46043</v>
+        <v>44420</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,13 +5505,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5543,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46069</v>
+        <v>44606</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5562,8 +5562,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>9.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5600,14 +5605,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9655-2026</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46070</v>
+        <v>45722</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5621,11 +5626,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>17.2</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5662,14 +5667,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46031</v>
+        <v>45279</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5681,13 +5686,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,14 +841,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 9956-2021</t>
+          <t>A 31335-2021</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44252</v>
+        <v>44368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -860,22 +860,17 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>6.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -890,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -899,135 +894,139 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Orange taggsvamp
-Svavelriska</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 9956-2021 artfynd.xlsx", "A 9956-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 9956-2021 karta.png", "A 9956-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 9956-2021 FSC-klagomål.docx", "A 9956-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 9956-2021 FSC-klagomål mail.docx", "A 9956-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 9956-2021 tillsynsbegäran.docx", "A 9956-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 9956-2021 tillsynsbegäran mail.docx", "A 9956-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 31335-2021</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44368</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grovticka
 Skarp dropptaggsvamp
 Svavelriska</t>
         </is>
       </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 31335-2021 artfynd.xlsx", "A 31335-2021")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 31335-2021 karta.png", "A 31335-2021")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 31335-2021 FSC-klagomål.docx", "A 31335-2021")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 31335-2021 FSC-klagomål mail.docx", "A 31335-2021")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 31335-2021 tillsynsbegäran.docx", "A 31335-2021")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 31335-2021 tillsynsbegäran mail.docx", "A 31335-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 10909-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45722</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UPPLANDS-BRO</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Arommusseron
+Fläcknycklar</t>
+        </is>
+      </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 31335-2021 artfynd.xlsx", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 10909-2025 artfynd.xlsx", "A 10909-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 31335-2021 karta.png", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 10909-2025 karta.png", "A 10909-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 31335-2021 FSC-klagomål.docx", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 10909-2025 FSC-klagomål.docx", "A 10909-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 31335-2021 FSC-klagomål mail.docx", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 10909-2025 FSC-klagomål mail.docx", "A 10909-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 31335-2021 tillsynsbegäran.docx", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 10909-2025 tillsynsbegäran.docx", "A 10909-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 31335-2021 tillsynsbegäran mail.docx", "A 31335-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 10909-2025 tillsynsbegäran mail.docx", "A 10909-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 10909-2025</t>
+          <t>A 10911-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1045,13 +1044,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.2</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1079,46 +1078,50 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Arommusseron
-Fläcknycklar</t>
+          <t>Talltita
+Vågbandad barkbock</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 10909-2025 artfynd.xlsx", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 10911-2025 artfynd.xlsx", "A 10911-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 10909-2025 karta.png", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 10911-2025 karta.png", "A 10911-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 10909-2025 FSC-klagomål.docx", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 10911-2025 FSC-klagomål.docx", "A 10911-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 10909-2025 FSC-klagomål mail.docx", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 10911-2025 FSC-klagomål mail.docx", "A 10911-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 10909-2025 tillsynsbegäran.docx", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 10911-2025 tillsynsbegäran.docx", "A 10911-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 10909-2025 tillsynsbegäran mail.docx", "A 10909-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 10911-2025 tillsynsbegäran mail.docx", "A 10911-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 10911-2025 prioriterade fågelarter.docx", "A 10911-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 10911-2025</t>
+          <t>A 7285-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45722</v>
+        <v>44606</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1132,23 +1135,23 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>22.6</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1163,57 +1166,52 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Talltita
-Vågbandad barkbock</t>
+          <t>Koppartaggsvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 10911-2025 artfynd.xlsx", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7285-2022 artfynd.xlsx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 10911-2025 karta.png", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7285-2022 karta.png", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 10911-2025 FSC-klagomål.docx", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7285-2022 FSC-klagomål.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 10911-2025 FSC-klagomål mail.docx", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7285-2022 FSC-klagomål mail.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 10911-2025 tillsynsbegäran.docx", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7285-2022 tillsynsbegäran.docx", "A 7285-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 10911-2025 tillsynsbegäran mail.docx", "A 10911-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 10911-2025 prioriterade fågelarter.docx", "A 10911-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7285-2022 tillsynsbegäran mail.docx", "A 7285-2022")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7285-2022</t>
+          <t>A 73787-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44606</v>
+        <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1225,13 +1223,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>22.6</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1240,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1258,52 +1251,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Koppartaggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7285-2022 artfynd.xlsx", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73787-2021 artfynd.xlsx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7285-2022 karta.png", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73787-2021 karta.png", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7285-2022 FSC-klagomål.docx", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73787-2021 FSC-klagomål.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7285-2022 FSC-klagomål mail.docx", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73787-2021 FSC-klagomål mail.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7285-2022 tillsynsbegäran.docx", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73787-2021 tillsynsbegäran.docx", "A 73787-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7285-2022 tillsynsbegäran mail.docx", "A 7285-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73787-2021 tillsynsbegäran mail.docx", "A 73787-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 73787-2021</t>
+          <t>A 7955-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44552</v>
+        <v>44973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1316,19 +1309,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1343,52 +1336,52 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73787-2021 artfynd.xlsx", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73787-2021 karta.png", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73787-2021 FSC-klagomål.docx", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73787-2021 FSC-klagomål mail.docx", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73787-2021 tillsynsbegäran.docx", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73787-2021 tillsynsbegäran mail.docx", "A 73787-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 23099-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>45450</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1400,20 +1393,25 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1428,38 +1426,38 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
         <v/>
       </c>
     </row>
@@ -1473,7 +1471,7 @@
         <v>44552</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,14 +1549,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 64098-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>45279</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,19 +1569,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1598,52 +1596,52 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Skogsalmsdvärgmal</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23099-2024</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45450</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1655,25 +1653,20 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,38 +1681,38 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 23099-2024 artfynd.xlsx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 23099-2024 karta.png", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 23099-2024 FSC-klagomål.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 23099-2024 FSC-klagomål mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 23099-2024 tillsynsbegäran.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 23099-2024 tillsynsbegäran mail.docx", "A 23099-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1726,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,14 +1804,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 7955-2023</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44973</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1831,7 +1824,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1869,27 +1862,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 7955-2023 artfynd.xlsx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 7955-2023 karta.png", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 7955-2023 FSC-klagomål.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 7955-2023 FSC-klagomål mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 7955-2023 tillsynsbegäran.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 7955-2023 tillsynsbegäran mail.docx", "A 7955-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
@@ -1903,7 +1896,7 @@
         <v>46034</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,14 +1978,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 64098-2023</t>
+          <t>A 37421-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45279</v>
+        <v>44397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,8 +1997,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2014,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2029,55 +2027,27 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalmsdvärgmal</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 64098-2023 artfynd.xlsx", "A 64098-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 64098-2023 karta.png", "A 64098-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 64098-2023 FSC-klagomål.docx", "A 64098-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 64098-2023 FSC-klagomål mail.docx", "A 64098-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 64098-2023 tillsynsbegäran.docx", "A 64098-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 64098-2023 tillsynsbegäran mail.docx", "A 64098-2023")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37421-2021</t>
+          <t>A 41465-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44397</v>
+        <v>44424</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2089,13 +2059,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2132,14 +2097,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 41465-2021</t>
+          <t>A 8261-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44424</v>
+        <v>44609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2152,7 +2117,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2189,14 +2154,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8261-2022</t>
+          <t>A 58663-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44609</v>
+        <v>44489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2208,8 +2173,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2246,14 +2216,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 58663-2021</t>
+          <t>A 72523-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44489</v>
+        <v>44546</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2265,13 +2235,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2308,14 +2273,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 72523-2021</t>
+          <t>A 46244-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44546</v>
+        <v>44442</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2328,7 +2293,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,14 +2330,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46244-2021</t>
+          <t>A 3838-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44442</v>
+        <v>44587.37274305556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2385,7 +2350,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2422,14 +2387,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 20604-2022</t>
+          <t>A 36111-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44700.46938657408</v>
+        <v>44389.5421875</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2442,7 +2407,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2479,14 +2444,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 3838-2022</t>
+          <t>A 20604-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44587.37274305556</v>
+        <v>44700.46938657408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2499,7 +2464,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2536,14 +2501,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 36111-2021</t>
+          <t>A 31160-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44389.5421875</v>
+        <v>44770</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2556,7 +2521,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2600,7 +2565,7 @@
         <v>44424</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2650,14 +2615,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31160-2022</t>
+          <t>A 14719-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44770</v>
+        <v>44655</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2669,8 +2634,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2707,14 +2677,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14719-2022</t>
+          <t>A 24308-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44655</v>
+        <v>44336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2726,13 +2696,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2769,14 +2734,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24308-2021</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44336</v>
+        <v>45722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2788,8 +2753,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2826,14 +2796,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45232</v>
+        <v>44906</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2845,13 +2815,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>38.9</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2888,14 +2853,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45279</v>
+        <v>44950</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2908,7 +2873,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2945,14 +2910,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44368</v>
+        <v>45348</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2964,8 +2929,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3002,14 +2972,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>44481</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3022,7 +2992,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3059,14 +3029,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45701</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3079,7 +3049,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3116,14 +3086,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44901</v>
+        <v>44959</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3135,13 +3105,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>11.9</v>
+        <v>5.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3178,14 +3143,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45547</v>
+        <v>44420</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3197,13 +3162,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3240,14 +3200,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45671</v>
+        <v>45096</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3260,7 +3220,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3297,14 +3257,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45701</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3316,8 +3276,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>17.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3354,14 +3319,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>45279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3374,7 +3339,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3411,14 +3376,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44950</v>
+        <v>45232</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3430,8 +3395,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1.4</v>
+        <v>38.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3468,14 +3438,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45450</v>
+        <v>44494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3493,7 +3463,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3530,14 +3500,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45225</v>
+        <v>45279</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3549,13 +3519,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>8.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3592,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>44354</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3612,7 +3577,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3649,14 +3614,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45348</v>
+        <v>44368</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3668,13 +3633,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3711,14 +3671,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45701</v>
+        <v>45450</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3736,7 +3696,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>17.3</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3780,7 +3740,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3830,14 +3790,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45096</v>
+        <v>45547</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3849,8 +3809,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3887,14 +3852,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45279</v>
+        <v>45216</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3907,7 +3872,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3944,14 +3909,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3964,7 +3929,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4001,14 +3966,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45216</v>
+        <v>45722</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4020,8 +3985,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4058,14 +4028,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44481</v>
+        <v>45722</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4077,8 +4047,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4115,14 +4090,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44487</v>
+        <v>45197</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4134,13 +4109,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4177,14 +4147,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44455</v>
+        <v>45701</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4197,7 +4167,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4241,7 +4211,7 @@
         <v>44321</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4291,14 +4261,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45279</v>
+        <v>44901</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4310,8 +4280,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>11.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4348,14 +4323,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45450</v>
+        <v>45225</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4373,7 +4348,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4410,14 +4385,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45986</v>
+        <v>44953</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4429,13 +4404,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4472,14 +4442,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>45671</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4492,7 +4462,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4529,14 +4499,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45197</v>
+        <v>44487</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,8 +4518,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4586,14 +4561,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45722</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4605,13 +4580,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4648,14 +4618,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44906</v>
+        <v>44546</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4668,7 +4638,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4705,14 +4675,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46042</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4724,13 +4694,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4767,14 +4732,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46043</v>
+        <v>45279</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4786,13 +4751,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4829,14 +4789,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45722</v>
+        <v>45450</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,11 +4810,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4891,14 +4851,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44959</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4911,7 +4871,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4955,7 +4915,7 @@
         <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5010,14 +4970,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44546</v>
+        <v>44901</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,8 +4989,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.6</v>
+        <v>10.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5067,14 +5032,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44953</v>
+        <v>44455</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5087,7 +5052,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5124,14 +5089,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>46069</v>
+        <v>45279</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5144,7 +5109,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5181,14 +5146,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9655-2026</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46070</v>
+        <v>45986</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5206,7 +5171,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>17.2</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5243,14 +5208,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44901</v>
+        <v>46042</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5233,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>10.7</v>
+        <v>9.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5270,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46031</v>
+        <v>44606</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5295,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5332,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44494</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,13 +5351,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5429,14 +5389,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44354</v>
+        <v>46043</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5448,8 +5408,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>5.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5486,14 +5451,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44420</v>
+        <v>46069</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5506,7 +5471,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5543,14 +5508,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44606</v>
+        <v>46070</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5568,7 +5533,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>9.6</v>
+        <v>17.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5602,17 +5567,17 @@
       </c>
       <c r="R78" s="2" t="inlineStr"/>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45722</v>
+        <v>46031</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5626,11 +5591,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5663,63 +5628,6 @@
         <v>0</v>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>A 64107-2023</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>45279</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>UPPLANDS-BRO</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45722</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44606</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45450</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,14 +1464,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 73773-2021</t>
+          <t>A 53357-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44552</v>
+        <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1508,41 +1508,41 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>45279</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1634,14 +1634,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 25561-2025</t>
+          <t>A 73773-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45803.45496527778</v>
+        <v>44552</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1678,41 +1678,41 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 73773-2021 artfynd.xlsx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 73773-2021 karta.png", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 73773-2021 FSC-klagomål.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 73773-2021 FSC-klagomål mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 73773-2021 tillsynsbegäran.docx", "A 73773-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 73773-2021 tillsynsbegäran mail.docx", "A 73773-2021")</f>
         <v/>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,14 +1804,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53357-2025</t>
+          <t>A 2409-2026</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45959.46942129629</v>
+        <v>46034</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1851,52 +1851,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 53357-2025 artfynd.xlsx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 53357-2025 karta.png", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 53357-2025 FSC-klagomål.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 53357-2025 FSC-klagomål mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 53357-2025 tillsynsbegäran.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 53357-2025 tillsynsbegäran mail.docx", "A 53357-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 2409-2026</t>
+          <t>A 25561-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>46034</v>
+        <v>45803.45496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1913,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>14.2</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1918,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1936,42 +1940,38 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 2409-2026 artfynd.xlsx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/artfynd/A 25561-2025 artfynd.xlsx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 2409-2026 karta.png", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/kartor/A 25561-2025 karta.png", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 2409-2026 FSC-klagomål.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomål/A 25561-2025 FSC-klagomål.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 2409-2026 FSC-klagomål mail.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/klagomålsmail/A 25561-2025 FSC-klagomål mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 2409-2026 tillsynsbegäran.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsyn/A 25561-2025 tillsynsbegäran.docx", "A 25561-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 2409-2026 tillsynsbegäran mail.docx", "A 2409-2026")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0139/fåglar/A 2409-2026 prioriterade fågelarter.docx", "A 2409-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0139/tillsynsmail/A 25561-2025 tillsynsbegäran mail.docx", "A 25561-2025")</f>
         <v/>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>44397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44424</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44546</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>44442</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2330,14 +2330,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3838-2022</t>
+          <t>A 20604-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44587.37274305556</v>
+        <v>44700.46938657408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2387,14 +2387,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36111-2021</t>
+          <t>A 3838-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44389.5421875</v>
+        <v>44587.37274305556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2444,14 +2444,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 20604-2022</t>
+          <t>A 36111-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44700.46938657408</v>
+        <v>44389.5421875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2501,14 +2501,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 31160-2022</t>
+          <t>A 41463-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44770</v>
+        <v>44424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2558,14 +2558,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 41463-2021</t>
+          <t>A 31160-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44424</v>
+        <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>44655</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2734,14 +2734,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10910-2025</t>
+          <t>A 56756-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45722</v>
+        <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2753,13 +2753,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2796,14 +2791,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 59402-2022</t>
+          <t>A 40514-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44906</v>
+        <v>44420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2816,7 +2811,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2853,14 +2848,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3630-2023</t>
+          <t>A 55586-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44950</v>
+        <v>45232</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2872,8 +2867,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>38.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2910,14 +2910,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7860-2024</t>
+          <t>A 59700-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45348</v>
+        <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2972,14 +2972,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56756-2021</t>
+          <t>A 38902-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44481</v>
+        <v>45547</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2991,8 +2991,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3029,14 +3034,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12372-2025</t>
+          <t>A 50294-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45730.37740740741</v>
+        <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3049,7 +3054,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3086,14 +3091,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 5264-2023</t>
+          <t>A 46438-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44959</v>
+        <v>45197</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3106,7 +3111,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3143,14 +3148,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 40514-2021</t>
+          <t>A 10910-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44420</v>
+        <v>45722</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3162,8 +3167,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3200,14 +3210,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 27313-2023</t>
+          <t>A 12372-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45096</v>
+        <v>45730.37740740741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3220,7 +3230,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3257,14 +3267,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7110-2025</t>
+          <t>A 5264-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45701</v>
+        <v>44959</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3276,13 +3286,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>17.3</v>
+        <v>5.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3319,14 +3324,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 64105-2023</t>
+          <t>A 12363-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45279</v>
+        <v>45730.37431712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,7 +3344,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3376,14 +3381,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 55586-2023</t>
+          <t>A 7110-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45232</v>
+        <v>45701</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3401,7 +3406,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>38.9</v>
+        <v>17.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3438,14 +3443,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 59700-2021</t>
+          <t>A 27805-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44494</v>
+        <v>44354</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3457,13 +3462,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3500,14 +3500,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64114-2023</t>
+          <t>A 31370-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45279</v>
+        <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3557,14 +3557,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 27805-2021</t>
+          <t>A 23098-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44354</v>
+        <v>45450</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3576,8 +3576,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3614,14 +3619,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 31370-2021</t>
+          <t>A 21560-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44368</v>
+        <v>44321</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3634,7 +3639,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3671,14 +3676,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 23098-2024</t>
+          <t>A 59844-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45450</v>
+        <v>44901</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3696,7 +3701,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>11.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 12378-2025</t>
+          <t>A 54222-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45730.38032407407</v>
+        <v>45225</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3752,8 +3757,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3790,14 +3800,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38902-2024</t>
+          <t>A 4338-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45547</v>
+        <v>44953</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3809,13 +3819,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3852,14 +3857,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 50294-2023</t>
+          <t>A 58011-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45216</v>
+        <v>44487</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3871,8 +3876,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3909,14 +3919,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 59377-2024</t>
+          <t>A 72524-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45638.35164351852</v>
+        <v>44546</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3929,7 +3939,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3966,14 +3976,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10912-2025</t>
+          <t>A 64107-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45722</v>
+        <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3985,13 +3995,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4028,14 +4033,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10935-2025</t>
+          <t>A 23093-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45722</v>
+        <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4049,11 +4054,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4090,14 +4095,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46438-2023</t>
+          <t>A 27313-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45197</v>
+        <v>45096</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4110,7 +4115,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4147,14 +4152,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7112-2025</t>
+          <t>A 59377-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45701</v>
+        <v>45638.35164351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4167,7 +4172,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4204,14 +4209,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21560-2021</t>
+          <t>A 58598-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44321</v>
+        <v>45986</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4223,8 +4228,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4261,14 +4271,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59844-2022</t>
+          <t>A 3596-2026</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44901</v>
+        <v>46042</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4286,7 +4296,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.9</v>
+        <v>9.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4323,14 +4333,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54222-2023</t>
+          <t>A 3754-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45225</v>
+        <v>46043</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4348,7 +4358,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4385,14 +4395,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4338-2023</t>
+          <t>A 51587-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44953</v>
+        <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4404,8 +4414,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4442,14 +4457,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2062-2025</t>
+          <t>A 59848-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45671</v>
+        <v>44901</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4461,8 +4476,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>10.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4499,14 +4519,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58011-2021</t>
+          <t>A 49622-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44487</v>
+        <v>44455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4518,13 +4538,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>9.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4561,14 +4576,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23615-2025</t>
+          <t>A 64110-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45792.66532407407</v>
+        <v>45279</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4581,7 +4596,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4618,14 +4633,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 72524-2021</t>
+          <t>A 9265-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44546</v>
+        <v>46069</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4638,7 +4653,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4675,14 +4690,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 23627-2025</t>
+          <t>A 9655-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45792.67523148148</v>
+        <v>46070</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4694,8 +4709,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.7</v>
+        <v>17.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4732,14 +4752,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64107-2023</t>
+          <t>A 2046-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45279</v>
+        <v>46031</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4751,8 +4771,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4789,14 +4814,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23093-2024</t>
+          <t>A 7275-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45450</v>
+        <v>44606</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4814,7 +4839,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>9.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4851,14 +4876,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12363-2025</t>
+          <t>A 2602-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45730.37431712963</v>
+        <v>45313.73068287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4871,7 +4896,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4908,14 +4933,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51587-2023</t>
+          <t>A 59402-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45215</v>
+        <v>44906</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4927,13 +4952,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4970,14 +4990,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59848-2022</t>
+          <t>A 3630-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44901</v>
+        <v>44950</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4989,13 +5009,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>10.7</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5032,14 +5047,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49622-2021</t>
+          <t>A 7860-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44455</v>
+        <v>45348</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5051,8 +5066,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5089,14 +5109,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 64110-2023</t>
+          <t>A 64105-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>45279</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5109,7 +5129,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5146,14 +5166,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58598-2025</t>
+          <t>A 64114-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45986</v>
+        <v>45279</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5165,13 +5185,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5208,14 +5223,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3596-2026</t>
+          <t>A 12378-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46042</v>
+        <v>45730.38032407407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5227,13 +5242,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>9.5</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5270,14 +5280,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7275-2022</t>
+          <t>A 10912-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44606</v>
+        <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5291,11 +5301,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.6</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5332,14 +5342,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2602-2024</t>
+          <t>A 10935-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45313.73068287037</v>
+        <v>45722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5351,8 +5361,13 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5389,14 +5404,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3754-2026</t>
+          <t>A 7112-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46043</v>
+        <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5408,13 +5423,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5451,14 +5461,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9265-2026</t>
+          <t>A 2062-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46069</v>
+        <v>45671</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5471,7 +5481,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5508,14 +5518,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9655-2026</t>
+          <t>A 23615-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46070</v>
+        <v>45792.66532407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5527,13 +5537,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>17.2</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5570,14 +5575,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 2046-2026</t>
+          <t>A 23627-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46031</v>
+        <v>45792.67523148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5589,13 +5594,8 @@
           <t>UPPLANDS-BRO</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS-BRO.xlsx
+++ b/Översikt UPPLANDS-BRO.xlsx
@@ -575,7 +575,7 @@
         <v>44368</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         <v>44552</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44552</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>44368</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>45722</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45722</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44606</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44552</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>44973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45450</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>45959.46942129629</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45279</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>44552</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45726</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>46034</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>45803.45496527778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44397</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44424</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2104,7 +2104,7 @@
         <v>44609</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>44489</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44546</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>44442</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>44700.46938657408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>44587.37274305556</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44389.5421875</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>44770</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>44655</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44336</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44481</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44420</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45232</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>44494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>45547</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>45216</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>45197</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>45722</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>45730.37740740741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         <v>44959</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>45730.37431712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45701</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44354</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44368</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>45450</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44321</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44901</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45225</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44953</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44487</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44546</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>45279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>45450</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>45096</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>45638.35164351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>45986</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>46042</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>46043</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>45215</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>44901</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4526,7 +4526,7 @@
         <v>44455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
         <v>45279</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>46069</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>46070</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>46031</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44606</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         <v>45313.73068287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44906</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44950</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         <v>45348</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>45279</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
         <v>45279</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         <v>45730.38032407407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45722</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>45722</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         <v>45701</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
         <v>45671</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         <v>45792.66532407407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>45792.67523148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
